--- a/kms-fe/public/assets/excel/MenuSample.xlsx
+++ b/kms-fe/public/assets/excel/MenuSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AD\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357CFB96-0BC0-446A-A45B-61DACCB250C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4664D5A8-E0E4-41E3-9FB6-AA02C97EE13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55BAEE7D-03EB-44DF-B6E7-9BC4F7E786D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55BAEE7D-03EB-44DF-B6E7-9BC4F7E786D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Thời gian áp dụng</t>
   </si>
@@ -78,10 +78,6 @@
     </r>
   </si>
   <si>
-    <t>Nhập mã Chương trình học áp dụng 
-(Ví dụ: SN,QT)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Mã bữa </t>
     </r>
@@ -132,17 +128,14 @@
     <t>BC</t>
   </si>
   <si>
+    <t>tẻ</t>
+  </si>
+  <si>
     <t>Nhập mã Khối áp dụng
-(Ví dụ: 1 cho khối 0-3, 2 cho khối 3-6)</t>
-  </si>
-  <si>
-    <t>tẻ</t>
-  </si>
-  <si>
-    <t>18/11/2024</t>
-  </si>
-  <si>
-    <t>24/11/2024</t>
+(Ví dụ: 1 cho khối 1, 2 cho khối 2, 3 cho khối 3, 4 cho khối 4, 5 cho khối 5)</t>
+  </si>
+  <si>
+    <t>**/**/2024</t>
   </si>
 </sst>
 </file>
@@ -629,21 +622,21 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="102" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,56 +646,54 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="B4" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -711,12 +702,12 @@
       <c r="G4" s="8"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -725,12 +716,12 @@
       <c r="G5" s="8"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="8"/>
@@ -739,12 +730,12 @@
       <c r="G6" s="8"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -753,12 +744,12 @@
       <c r="G7" s="8"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -767,12 +758,12 @@
       <c r="G8" s="8"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -781,12 +772,12 @@
       <c r="G9" s="8"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="8"/>
@@ -795,12 +786,12 @@
       <c r="G10" s="8"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -809,12 +800,12 @@
       <c r="G11" s="8"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -823,12 +814,12 @@
       <c r="G12" s="8"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -837,7 +828,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
